--- a/schoolmeal-react/public/ingredientInfo/price-template.xlsx
+++ b/schoolmeal-react/public/ingredientInfo/price-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG115\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG115\Desktop\schoolMeal_Local\schoolmeal-react\public\ingredientInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="업로드 서식" sheetId="1" r:id="rId1"/>
     <sheet name="입력데이터 설명" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,57 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>HACCP 지정번호</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>카테고리</t>
   </si>
   <si>
-    <t>업소명</t>
-  </si>
-  <si>
-    <t>주소</t>
+    <t>name1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 입력완료여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자로 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물, 수산물, 축산물, 공산품 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리(필수)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>품목명</t>
-  </si>
-  <si>
-    <t>영업상태</t>
-  </si>
-  <si>
-    <t>인증 종료일자</t>
-  </si>
-  <si>
-    <t>2024-00-0000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수산물</t>
-  </si>
-  <si>
-    <t>name1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업중</t>
-  </si>
-  <si>
-    <t>데이터 입력완료여부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 형식으로 입력(yyyy-mm-dd)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -89,7 +82,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인증</t>
+      <t>품목명</t>
     </r>
     <r>
       <rPr>
@@ -98,7 +91,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -108,7 +101,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>종료일자</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -117,8 +110,15 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상, 중상, 중, 중하, 하 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -127,7 +127,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>생산지역</t>
     </r>
     <r>
       <rPr>
@@ -136,15 +136,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업중, 폐업, 휴업 중 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -153,7 +146,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>영업상태</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -162,8 +155,11 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -172,7 +168,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>등급</t>
     </r>
     <r>
       <rPr>
@@ -181,15 +177,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증받은 품목명 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -198,7 +187,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>품목명</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -207,8 +196,11 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -217,7 +209,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>가격</t>
     </r>
     <r>
       <rPr>
@@ -226,15 +218,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -243,7 +228,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>주소</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -252,145 +237,154 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>문자로 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업소명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>농산물, 수산물, 축산물, 공산품 중 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리(필수)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 형식에 맞게 입력
-예) 2024-05-0328</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HACCP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>숫자로 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지역 목록 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공산품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중하</t>
+  </si>
+  <si>
+    <t>중하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +460,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,16 +540,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -543,47 +558,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -604,23 +616,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -664,6 +670,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -677,32 +690,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="입력데이터 설명"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:H2"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="HACCP 지정번호" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="2" name="카테고리"/>
-    <tableColumn id="3" name="업소명"/>
-    <tableColumn id="4" name="주소"/>
-    <tableColumn id="5" name="품목명"/>
-    <tableColumn id="6" name="영업상태"/>
-    <tableColumn id="7" name="인증 종료일자" dataDxfId="5"/>
-    <tableColumn id="8" name="데이터 입력완료여부" dataDxfId="4">
-      <calculatedColumnFormula>IF(COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2), "데이터를 모두 입력하세요", "입력 완료")</calculatedColumnFormula>
+    <tableColumn id="3" name="품목명"/>
+    <tableColumn id="4" name="등급" dataDxfId="1"/>
+    <tableColumn id="5" name="생산지역"/>
+    <tableColumn id="6" name="가격"/>
+    <tableColumn id="8" name="데이터 입력완료여부" dataDxfId="0">
+      <calculatedColumnFormula>IF(COUNTA($A2:$E2)&lt;COLUMNS($A2:$E2), "데이터를 모두 입력하세요", "입력 완료")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -972,95 +970,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>45658</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2" si="0">IF(COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2), "데이터를 모두 입력하세요", "입력 완료")</f>
+      <c r="F2" s="11" t="str">
+        <f>IF(COUNTA($A2:$E2)&lt;COLUMNS($A2:$E2), "데이터를 모두 입력하세요", "입력 완료")</f>
         <v>입력 완료</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2)</formula>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="완료">
+      <formula>NOT(ISERROR(SEARCH("완료",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="완료">
-      <formula>NOT(ISERROR(SEARCH("완료",H2)))</formula>
+  <conditionalFormatting sqref="A2:E2">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>COUNTA($A2:$E2)&lt;COLUMNS($A2:$E2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식오류" error="적절한 형식으로 입력하세요._x000a_예)0000-00-0000" sqref="A2">
-      <formula1>AND(ISNUMBER(VALUE(LEFT(A2,4))),MID(A2,5,1)="-",ISNUMBER(VALUE(MID(A2,6,2))),MID(A2,8,1)="-",ISNUMBER(VALUE(RIGHT(A2,4))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="모든 데이터를 입력해야 합니다." promptTitle="날짜형식" prompt="날짜형식에 맞게 입력해주세요_x000a_예)2024-1-1" sqref="G2">
-      <formula1>COUNTA($A2:$G2)=COLUMNS($A2:$G2)</formula1>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식 오류" error="숫자로 입력하세요(최대값:1000000)_x000a_" sqref="E2">
+      <formula1>1</formula1>
+      <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,12 +1051,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식오류" error="목록 중 선택하세요_x000a_">
           <x14:formula1>
-            <xm:f>'[haccp-template (2).xlsx]입력데이터 설명'!#REF!</xm:f>
+            <xm:f>'입력데이터 설명'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 F2</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식 오류" error="목록 중 선택하세요.">
+          <x14:formula1>
+            <xm:f>'입력데이터 설명'!$F$2:$F$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식 오류" error="목록 중 선택하세요.">
+          <x14:formula1>
+            <xm:f>'입력데이터 설명'!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1084,88 +1078,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="6" width="9" style="12"/>
+    <col min="7" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>